--- a/Datos/Database by set/Set with text box/Xlsx sets/Game Night 2019 Tokens (TGN2).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Game Night 2019 Tokens (TGN2).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,91 +444,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dinosaur</t>
+          <t>('Dinosaur', ['Token Creature — Dinosaur', 'Trample (This creature can deal excess combat damage to the player or planeswalker it’s attacking.)', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Token Creature — Dinosaur</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Trample (This creature can deal excess combat damage to the player or planeswalker it’s attacking.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Dragon</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Token Creature — Dragon</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>{R}: This creature gets +1/+0 until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Dragon</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Token Creature — Dragon</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>5/5</t>
+          <t>('Dragon', ['Token Creature — Dragon', 'Flying', '5/5'])</t>
         </is>
       </c>
     </row>
